--- a/Assets/1.0.xlsx
+++ b/Assets/1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gachon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\WinterProj\Project_Merge\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C66FF-00AE-48F4-A8EA-C011DFC1810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237E26C-84FB-4845-BE2A-303999D9F721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8235" yWindow="360" windowWidth="25935" windowHeight="12930" xr2:uid="{0C77A986-1A2F-4F6E-9BEE-4C3E62E530AF}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +548,26 @@
   </si>
   <si>
     <t>마녀가 맨손으로 취급할 수 있도록 도와줬습니다. 마녀의 이마에서 식은땀이 흐릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점을 염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인이 찾아온 레후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,9 +636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +676,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -773,7 +782,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481F0783-F6C7-4ACF-92AA-B6D169AA698E}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2145,6 +2154,44 @@
         <v>92</v>
       </c>
     </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/1.0.xlsx
+++ b/Assets/1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\WinterProj\Project_Merge\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS\OneDrive\Desktop\git\Project_Merge\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237E26C-84FB-4845-BE2A-303999D9F721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C86D16F-D42C-4B89-BA9F-9C4D76B2334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="360" windowWidth="25935" windowHeight="12930" xr2:uid="{0C77A986-1A2F-4F6E-9BEE-4C3E62E530AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C77A986-1A2F-4F6E-9BEE-4C3E62E530AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상인이 찾아온 레후</t>
+    <t>상인이 찾아왔습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +935,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
